--- a/fluxes_23_dense_metabolism.xlsx
+++ b/fluxes_23_dense_metabolism.xlsx
@@ -1111,7 +1111,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.3472026799995114</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0.0001737327280575618</v>
@@ -1420,7 +1420,7 @@
         <v>0.1891587680822251</v>
       </c>
       <c r="D5">
-        <v>0.0002771005644716731</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0.001306859327025839</v>
@@ -1729,7 +1729,7 @@
         <v>0.0002762751761588383</v>
       </c>
       <c r="E6">
-        <v>0.001765525202551461</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0.0002251535468408393</v>
@@ -2038,7 +2038,7 @@
         <v>0.001516700836300929</v>
       </c>
       <c r="F7">
-        <v>0.0002190554743679917</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0.000297466665130639</v>
@@ -2347,7 +2347,7 @@
         <v>0.0002047095605146138</v>
       </c>
       <c r="G8">
-        <v>0.0002099676030327086</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0.000371063406736838</v>
@@ -2656,7 +2656,7 @@
         <v>0.0003543458212339589</v>
       </c>
       <c r="H9">
-        <v>0.0007423299087703245</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0.002082296767931094</v>
@@ -2965,7 +2965,7 @@
         <v>0.0005397395622656001</v>
       </c>
       <c r="I10">
-        <v>0.002238324270615631</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0.0005287937948849056</v>
@@ -3274,7 +3274,7 @@
         <v>0.002001249127924476</v>
       </c>
       <c r="J11">
-        <v>0.0009430841896998805</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0.0005025290989270138</v>
@@ -3583,7 +3583,7 @@
         <v>0.0006639545924926177</v>
       </c>
       <c r="K12">
-        <v>0.0008477783492578258</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0.0006924460227840149</v>
@@ -3892,7 +3892,7 @@
         <v>0.0006654124204153594</v>
       </c>
       <c r="L13">
-        <v>0.0006617585097853746</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0.00108712534096096</v>
@@ -4201,7 +4201,7 @@
         <v>0.001188976444393104</v>
       </c>
       <c r="M14">
-        <v>0.0007566424218511899</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0.0002834855632639662</v>
@@ -4510,7 +4510,7 @@
         <v>0.001430045609515763</v>
       </c>
       <c r="N15">
-        <v>0.0003268975612928479</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0.001014608516252093</v>
@@ -4819,7 +4819,7 @@
         <v>0.0001887308707229641</v>
       </c>
       <c r="O16">
-        <v>0.001321458629085127</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0.0001793065244690452</v>
@@ -5128,7 +5128,7 @@
         <v>0.001701984627325433</v>
       </c>
       <c r="P17">
-        <v>0.0001697708841511931</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0.0003927773451383592</v>
@@ -5437,7 +5437,7 @@
         <v>0.0001511933261462484</v>
       </c>
       <c r="Q18">
-        <v>0.000200848834323574</v>
+        <v>0</v>
       </c>
       <c r="R18">
         <v>0.001111673139811474</v>
@@ -5746,7 +5746,7 @@
         <v>0.0002383469464850027</v>
       </c>
       <c r="R19">
-        <v>0.001423085095381608</v>
+        <v>0</v>
       </c>
       <c r="S19">
         <v>0.00017605788540955</v>
@@ -6055,7 +6055,7 @@
         <v>0.001177563661842237</v>
       </c>
       <c r="S20">
-        <v>0.0004058405810673626</v>
+        <v>0</v>
       </c>
       <c r="T20">
         <v>0.0002827685490171002</v>
@@ -6364,7 +6364,7 @@
         <v>0.0002776325454489013</v>
       </c>
       <c r="T21">
-        <v>0.0002287346736917157</v>
+        <v>0</v>
       </c>
       <c r="U21">
         <v>0.00199587237843518</v>
@@ -6673,7 +6673,7 @@
         <v>0.0002611407831309876</v>
       </c>
       <c r="U22">
-        <v>0.001892253257465423</v>
+        <v>0</v>
       </c>
       <c r="V22">
         <v>0.000919116375144049</v>
@@ -6982,7 +6982,7 @@
         <v>0.001376283863031795</v>
       </c>
       <c r="V23">
-        <v>0.001017452906543974</v>
+        <v>0</v>
       </c>
       <c r="W23">
         <v>0.0006218237967911471</v>
@@ -7291,7 +7291,7 @@
         <v>0.001028023280137118</v>
       </c>
       <c r="W24">
-        <v>0.000361778400619539</v>
+        <v>0</v>
       </c>
       <c r="X24">
         <v>0.001963046887615427</v>
@@ -7600,7 +7600,7 @@
         <v>0.0006807799609146594</v>
       </c>
       <c r="X25">
-        <v>0.001889440928975771</v>
+        <v>0</v>
       </c>
       <c r="Y25">
         <v>0.00179932103976034</v>
@@ -7909,7 +7909,7 @@
         <v>0.001183721241533339</v>
       </c>
       <c r="Y26">
-        <v>0.001797216067858293</v>
+        <v>0</v>
       </c>
       <c r="Z26">
         <v>0.000462317907501715</v>
@@ -8218,7 +8218,7 @@
         <v>0.002757000813995189</v>
       </c>
       <c r="Z27">
-        <v>0.0001884061318419171</v>
+        <v>0</v>
       </c>
       <c r="AA27">
         <v>0.002389878514868894</v>
@@ -8527,7 +8527,7 @@
         <v>0.0002896405104108869</v>
       </c>
       <c r="AA28">
-        <v>0.001051911849388969</v>
+        <v>0</v>
       </c>
       <c r="AB28">
         <v>0.001361862882299628</v>
@@ -8838,7 +8838,7 @@
         <v>0.001568295789965756</v>
       </c>
       <c r="AB29">
-        <v>0.002575158167034665</v>
+        <v>0</v>
       </c>
       <c r="AC29">
         <v>0.001818531301892186</v>
@@ -9147,7 +9147,7 @@
         <v>0.002147924495783709</v>
       </c>
       <c r="AC30">
-        <v>0.001406457178741901</v>
+        <v>0</v>
       </c>
       <c r="AD30">
         <v>0.0007093684652746614</v>
@@ -9456,7 +9456,7 @@
         <v>0.001922816507319643</v>
       </c>
       <c r="AD31">
-        <v>0.0005921628292267764</v>
+        <v>0</v>
       </c>
       <c r="AE31">
         <v>0.0003097110698955767</v>
@@ -9765,7 +9765,7 @@
         <v>0.0009972804311380516</v>
       </c>
       <c r="AE32">
-        <v>0.0004820980817071366</v>
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0.0002337400933409951</v>
@@ -10074,7 +10074,7 @@
         <v>0.0002015562217558909</v>
       </c>
       <c r="AF33">
-        <v>0.000141699058180683</v>
+        <v>0</v>
       </c>
       <c r="AG33">
         <v>0.0001661510568797617</v>
@@ -10383,7 +10383,7 @@
         <v>0.000194030809423413</v>
       </c>
       <c r="AG34">
-        <v>0.0002427473965267216</v>
+        <v>0</v>
       </c>
       <c r="AH34">
         <v>0.001193044327254165</v>
@@ -10692,7 +10692,7 @@
         <v>0.000245700381442377</v>
       </c>
       <c r="AH35">
-        <v>0.001375620483978564</v>
+        <v>0</v>
       </c>
       <c r="AI35">
         <v>0.001194280165327623</v>
@@ -11001,7 +11001,7 @@
         <v>0.001368601033959938</v>
       </c>
       <c r="AI36">
-        <v>0.0006111191620724727</v>
+        <v>0</v>
       </c>
       <c r="AJ36">
         <v>0.0001421934339728278</v>
@@ -11310,7 +11310,7 @@
         <v>0.0006489384689329161</v>
       </c>
       <c r="AJ37">
-        <v>0.0002378681001999296</v>
+        <v>0</v>
       </c>
       <c r="AK37">
         <v>0.001910066162659586</v>
@@ -11619,7 +11619,7 @@
         <v>0.0001200628681111303</v>
       </c>
       <c r="AK38">
-        <v>0.002009534237964203</v>
+        <v>0</v>
       </c>
       <c r="AL38">
         <v>0.0002360491167099887</v>
@@ -11928,7 +11928,7 @@
         <v>0.003008101919021013</v>
       </c>
       <c r="AL39">
-        <v>0.0002342319946419942</v>
+        <v>0</v>
       </c>
       <c r="AM39">
         <v>0.0001328073938786161</v>
@@ -12237,7 +12237,7 @@
         <v>0.0002945117989013051</v>
       </c>
       <c r="AM40">
-        <v>0.0002174137891167799</v>
+        <v>0</v>
       </c>
       <c r="AN40">
         <v>0.0002810871139469754</v>
@@ -12546,7 +12546,7 @@
         <v>0.0001023310716082079</v>
       </c>
       <c r="AN41">
-        <v>0.0001920731581446811</v>
+        <v>0</v>
       </c>
       <c r="AO41">
         <v>0.0002120276232502732</v>
@@ -12855,7 +12855,7 @@
         <v>0.0001990248233894485</v>
       </c>
       <c r="AO42">
-        <v>0.0002096334954129506</v>
+        <v>0</v>
       </c>
       <c r="AP42">
         <v>0.001387906461877262</v>
@@ -13164,7 +13164,7 @@
         <v>0.0001867296731557907</v>
       </c>
       <c r="AP43">
-        <v>0.001178223782066786</v>
+        <v>0</v>
       </c>
       <c r="AQ43">
         <v>0.0009375397413088194</v>
@@ -13473,7 +13473,7 @@
         <v>0.0005001030013970563</v>
       </c>
       <c r="AQ44">
-        <v>0.000746262121099469</v>
+        <v>0</v>
       </c>
       <c r="AR44">
         <v>0.001187450548721522</v>
@@ -13782,7 +13782,7 @@
         <v>0.001120044385388809</v>
       </c>
       <c r="AR45">
-        <v>0.001838419438678608</v>
+        <v>0</v>
       </c>
       <c r="AS45">
         <v>0.001023973192578367</v>
@@ -14091,7 +14091,7 @@
         <v>0.001574910856326016</v>
       </c>
       <c r="AS46">
-        <v>0.0018460175507954</v>
+        <v>0</v>
       </c>
       <c r="AT46">
         <v>9.953745031176221e-05</v>
@@ -14400,7 +14400,7 @@
         <v>0.001298783498801241</v>
       </c>
       <c r="AT47">
-        <v>0.0001580105862705171</v>
+        <v>0</v>
       </c>
       <c r="AU47">
         <v>0.0002029656532929488</v>
@@ -14709,7 +14709,7 @@
         <v>0.0001937818208137917</v>
       </c>
       <c r="AU48">
-        <v>0.0002032862291858866</v>
+        <v>0</v>
       </c>
       <c r="AV48">
         <v>0.0001750230011974548</v>
@@ -15018,7 +15018,7 @@
         <v>0.0001489325429618841</v>
       </c>
       <c r="AV49">
-        <v>0.0001671092982709616</v>
+        <v>0</v>
       </c>
       <c r="AW49">
         <v>0.000796435264420593</v>
@@ -15327,7 +15327,7 @@
         <v>0.0001938814105405544</v>
       </c>
       <c r="AW50">
-        <v>0.001961659071454615</v>
+        <v>0</v>
       </c>
       <c r="AX50">
         <v>0.001448618504410522</v>
@@ -15636,7 +15636,7 @@
         <v>0.002089443062584097</v>
       </c>
       <c r="AX51">
-        <v>0.001482666801092381</v>
+        <v>0</v>
       </c>
       <c r="AY51">
         <v>0.000323182833172329</v>
@@ -15945,7 +15945,7 @@
         <v>0.001978244909335283</v>
       </c>
       <c r="AY52">
-        <v>0.0003233803389543158</v>
+        <v>0</v>
       </c>
       <c r="AZ52">
         <v>0.002117102526313616</v>
@@ -16254,7 +16254,7 @@
         <v>0.0002799236205860769</v>
       </c>
       <c r="AZ53">
-        <v>0.001059179685277154</v>
+        <v>0</v>
       </c>
       <c r="BA53">
         <v>0.002934743450657919</v>
@@ -16565,7 +16565,7 @@
         <v>0.001233181640825268</v>
       </c>
       <c r="BA54">
-        <v>0.002089402065100388</v>
+        <v>0</v>
       </c>
       <c r="BB54">
         <v>0.001016268789175876</v>
@@ -16874,7 +16874,7 @@
         <v>0.003299968414924117</v>
       </c>
       <c r="BB55">
-        <v>0.0007078971605528503</v>
+        <v>0</v>
       </c>
       <c r="BC55">
         <v>0.001430796830030774</v>
@@ -17183,7 +17183,7 @@
         <v>0.002278325311455883</v>
       </c>
       <c r="BC56">
-        <v>0.001456283567231372</v>
+        <v>0</v>
       </c>
       <c r="BD56">
         <v>0.001119601120647482</v>
@@ -17492,7 +17492,7 @@
         <v>0.0009436466238463715</v>
       </c>
       <c r="BD57">
-        <v>0.0003692040256735269</v>
+        <v>0</v>
       </c>
       <c r="BE57">
         <v>0.0001978493237022656</v>
@@ -17801,7 +17801,7 @@
         <v>0.0006945590410369071</v>
       </c>
       <c r="BE58">
-        <v>0.0001836384996083716</v>
+        <v>0</v>
       </c>
       <c r="BF58">
         <v>0.0002596756864224209</v>
@@ -18110,7 +18110,7 @@
         <v>0.0001386975980831602</v>
       </c>
       <c r="BF59">
-        <v>0.0001033517008379569</v>
+        <v>0</v>
       </c>
       <c r="BG59">
         <v>0.001289517376973643</v>
@@ -18419,7 +18419,7 @@
         <v>0.0001456578551819112</v>
       </c>
       <c r="BG60">
-        <v>0.001291950818419613</v>
+        <v>0</v>
       </c>
       <c r="BH60">
         <v>0.0002352671990042215</v>
@@ -18728,7 +18728,7 @@
         <v>0.001609961665966811</v>
       </c>
       <c r="BH61">
-        <v>0.0002613985129427599</v>
+        <v>0</v>
       </c>
       <c r="BI61">
         <v>0.001056202787075701</v>
@@ -19037,7 +19037,7 @@
         <v>0.0003241306857430425</v>
       </c>
       <c r="BI62">
-        <v>0.0006225358179813564</v>
+        <v>0</v>
       </c>
       <c r="BJ62">
         <v>0.0002606782532853145</v>
@@ -19346,7 +19346,7 @@
         <v>0.001272616935635866</v>
       </c>
       <c r="BJ63">
-        <v>0.0002196498577097971</v>
+        <v>0</v>
       </c>
       <c r="BK63">
         <v>0.001617032542104011</v>
@@ -19655,7 +19655,7 @@
         <v>0.0001864356783140139</v>
       </c>
       <c r="BK64">
-        <v>0.00119239215430539</v>
+        <v>0</v>
       </c>
       <c r="BL64">
         <v>0.0003082661269234674</v>
@@ -19964,7 +19964,7 @@
         <v>0.001075327365204163</v>
       </c>
       <c r="BL65">
-        <v>0.0003510655814294553</v>
+        <v>0</v>
       </c>
       <c r="BM65">
         <v>0.001681558143425661</v>
@@ -20273,7 +20273,7 @@
         <v>0.0001816046193188419</v>
       </c>
       <c r="BM66">
-        <v>0.001760915569503572</v>
+        <v>0</v>
       </c>
       <c r="BN66">
         <v>0.0007886208707694844</v>
@@ -20582,7 +20582,7 @@
         <v>0.001407831704784154</v>
       </c>
       <c r="BN67">
-        <v>0.00126808938457683</v>
+        <v>0</v>
       </c>
       <c r="BO67">
         <v>0.0002812983416924536</v>
@@ -20891,7 +20891,7 @@
         <v>0.001225814896671688</v>
       </c>
       <c r="BO68">
-        <v>0.000293872601669426</v>
+        <v>0</v>
       </c>
       <c r="BP68">
         <v>0.0001615299612642093</v>
@@ -21200,7 +21200,7 @@
         <v>0.0002420989199365579</v>
       </c>
       <c r="BP69">
-        <v>0.0001430120936543887</v>
+        <v>0</v>
       </c>
       <c r="BQ69">
         <v>0.00024394442159042</v>
@@ -21509,7 +21509,7 @@
         <v>0.0001712798605213557</v>
       </c>
       <c r="BQ70">
-        <v>0.0003106577543986139</v>
+        <v>0</v>
       </c>
       <c r="BR70">
         <v>8.85746341894216e-05</v>
@@ -21818,7 +21818,7 @@
         <v>0.0003738975802647965</v>
       </c>
       <c r="BR71">
-        <v>0.0002953636519493283</v>
+        <v>0</v>
       </c>
       <c r="BS71">
         <v>0.000249588352894369</v>
@@ -22127,7 +22127,7 @@
         <v>0.000175143369682675</v>
       </c>
       <c r="BS72">
-        <v>0.0004718705450528852</v>
+        <v>0</v>
       </c>
       <c r="BT72">
         <v>0.0008455108960848339</v>
@@ -22436,7 +22436,7 @@
         <v>0.0005384007203498167</v>
       </c>
       <c r="BT73">
-        <v>0.001271001432575371</v>
+        <v>0</v>
       </c>
       <c r="BU73">
         <v>0.0001901318731074509</v>
@@ -22745,7 +22745,7 @@
         <v>0.001317487601860784</v>
       </c>
       <c r="BU74">
-        <v>0.0001350017238613206</v>
+        <v>0</v>
       </c>
       <c r="BV74">
         <v>0.001202889526863896</v>
@@ -23054,7 +23054,7 @@
         <v>0.0002279262129354779</v>
       </c>
       <c r="BV75">
-        <v>0.002075793062439552</v>
+        <v>0</v>
       </c>
       <c r="BW75">
         <v>0.0001670984971601537</v>
@@ -23363,7 +23363,7 @@
         <v>0.00221721389451095</v>
       </c>
       <c r="BW76">
-        <v>8.436911321159595e-05</v>
+        <v>0</v>
       </c>
       <c r="BX76">
         <v>0.0002350184967176189</v>
@@ -23672,7 +23672,7 @@
         <v>0.0001701240504993099</v>
       </c>
       <c r="BX77">
-        <v>0.0001763917804573568</v>
+        <v>0</v>
       </c>
       <c r="BY77">
         <v>0.001667063748077203</v>
@@ -23981,7 +23981,7 @@
         <v>0.0001407284329575917</v>
       </c>
       <c r="BY78">
-        <v>0.001030956714367062</v>
+        <v>0</v>
       </c>
       <c r="BZ78">
         <v>0.002149702543916033</v>
@@ -24292,7 +24292,7 @@
         <v>0.0009110008929199341</v>
       </c>
       <c r="BZ79">
-        <v>0.0009529359648175188</v>
+        <v>0</v>
       </c>
       <c r="CA79">
         <v>0.0004234938714121807</v>
@@ -24601,7 +24601,7 @@
         <v>0.001375611665369011</v>
       </c>
       <c r="CA80">
-        <v>0.0002122285460234791</v>
+        <v>0</v>
       </c>
       <c r="CB80">
         <v>0.0003146062910432394</v>
@@ -24910,7 +24910,7 @@
         <v>0.0002692137881763661</v>
       </c>
       <c r="CB81">
-        <v>0.0007073180442597702</v>
+        <v>0</v>
       </c>
       <c r="CC81">
         <v>0.0004259657342732199</v>
@@ -25219,7 +25219,7 @@
         <v>0.0005016954337601254</v>
       </c>
       <c r="CC82">
-        <v>0.0004539358935889415</v>
+        <v>0</v>
       </c>
       <c r="CD82">
         <v>0.001507554779279227</v>
@@ -25528,7 +25528,7 @@
         <v>0.0003104008352901312</v>
       </c>
       <c r="CD83">
-        <v>0.001154467298944024</v>
+        <v>0</v>
       </c>
       <c r="CE83">
         <v>6.947998252822305e-05</v>
@@ -25837,7 +25837,7 @@
         <v>0.00215711038599438</v>
       </c>
       <c r="CE84">
-        <v>9.971345489883129e-05</v>
+        <v>0</v>
       </c>
       <c r="CF84">
         <v>0.0004274310095411451</v>
@@ -26146,7 +26146,7 @@
         <v>0.0001429777634205695</v>
       </c>
       <c r="CF85">
-        <v>0.0004915005544478189</v>
+        <v>0</v>
       </c>
       <c r="CG85">
         <v>0.0004121442135096638</v>
@@ -26455,7 +26455,7 @@
         <v>0.0007015851930213664</v>
       </c>
       <c r="CG86">
-        <v>0.0002820587051851335</v>
+        <v>0</v>
       </c>
       <c r="CH86">
         <v>0.0002126746683501118</v>
@@ -26764,7 +26764,7 @@
         <v>0.000259741117521001</v>
       </c>
       <c r="CH87">
-        <v>0.000274347398718949</v>
+        <v>0</v>
       </c>
       <c r="CI87">
         <v>0.001058158815512612</v>
@@ -27073,7 +27073,7 @@
         <v>0.0003197464111353617</v>
       </c>
       <c r="CI88">
-        <v>0.0007495888627958575</v>
+        <v>0</v>
       </c>
       <c r="CJ88">
         <v>0.0001589807776140494</v>
@@ -27382,7 +27382,7 @@
         <v>0.001132855028703039</v>
       </c>
       <c r="CJ89">
-        <v>0.0003466077442685851</v>
+        <v>0</v>
       </c>
       <c r="CK89">
         <v>0.001621690164539177</v>
@@ -27691,7 +27691,7 @@
         <v>0.000299635158502531</v>
       </c>
       <c r="CK90">
-        <v>0.0006224916660825516</v>
+        <v>0</v>
       </c>
       <c r="CL90">
         <v>0.0001813231251919112</v>
@@ -28000,7 +28000,7 @@
         <v>0.001039857787297568</v>
       </c>
       <c r="CL91">
-        <v>4.776751836800153e-05</v>
+        <v>0</v>
       </c>
       <c r="CM91">
         <v>7.54203222059917e-05</v>
@@ -28309,7 +28309,7 @@
         <v>0.0001711236601504956</v>
       </c>
       <c r="CM92">
-        <v>0.0001065774163349579</v>
+        <v>0</v>
       </c>
       <c r="CN92">
         <v>0.001952823489594143</v>
@@ -28618,7 +28618,7 @@
         <v>0.0001966106105508911</v>
       </c>
       <c r="CN93">
-        <v>0.003198402315679162</v>
+        <v>0</v>
       </c>
       <c r="CO93">
         <v>0.0003086468354105076</v>
@@ -28927,7 +28927,7 @@
         <v>0.003843309974487942</v>
       </c>
       <c r="CO94">
-        <v>0.0005352270508788466</v>
+        <v>0</v>
       </c>
       <c r="CP94">
         <v>0.0002963157277901084</v>
@@ -29236,7 +29236,7 @@
         <v>0.0002098925571981985</v>
       </c>
       <c r="CP95">
-        <v>0.0005190335596705469</v>
+        <v>0</v>
       </c>
       <c r="CQ95">
         <v>0.0002077464634195086</v>
@@ -29545,7 +29545,7 @@
         <v>0.0004021820556049028</v>
       </c>
       <c r="CQ96">
-        <v>0.0002511875770965411</v>
+        <v>0</v>
       </c>
       <c r="CR96">
         <v>0.0002164418885742806</v>
@@ -29854,7 +29854,7 @@
         <v>0.0001648891736729293</v>
       </c>
       <c r="CR97">
-        <v>0.0001593994102747611</v>
+        <v>0</v>
       </c>
       <c r="CS97">
         <v>0.000364720548149033</v>
@@ -30163,7 +30163,7 @@
         <v>0.0002996274738016981</v>
       </c>
       <c r="CS98">
-        <v>0.0002811600136625933</v>
+        <v>0</v>
       </c>
       <c r="CT98">
         <v>0.0003730645800584469</v>
@@ -30472,7 +30472,7 @@
         <v>0.0002527895017476827</v>
       </c>
       <c r="CT99">
-        <v>0.0003851665178489478</v>
+        <v>0</v>
       </c>
       <c r="CU99">
         <v>0.0001818564603225785</v>
@@ -30781,7 +30781,7 @@
         <v>0.0004993410025711827</v>
       </c>
       <c r="CU100">
-        <v>0.000271651566850556</v>
+        <v>0</v>
       </c>
       <c r="CV100">
         <v>0.001114710765355925</v>
@@ -31090,7 +31090,7 @@
         <v>0.0001749952774193047</v>
       </c>
       <c r="CV101">
-        <v>0.0007000899947872063</v>
+        <v>0</v>
       </c>
       <c r="CW101">
         <v>0.001399776875941963</v>
@@ -31399,7 +31399,7 @@
         <v>0.000917500788020649</v>
       </c>
       <c r="CW102">
-        <v>0.001154069523438727</v>
+        <v>0</v>
       </c>
       <c r="CX102">
         <v>0.00144846254695908</v>
@@ -31708,7 +31708,7 @@
         <v>0.0009729277370012606</v>
       </c>
       <c r="CX103">
-        <v>0.001237202325772427</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
